--- a/data/outputs/management/51.xlsx
+++ b/data/outputs/management/51.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ214"/>
+  <dimension ref="A1:BR214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +930,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1136,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1331,6 +1338,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1532,6 +1540,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1737,6 +1746,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1946,6 +1956,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>4476104</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2155,6 +2170,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2356,6 +2372,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2573,6 +2590,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2790,6 +2808,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2999,6 +3018,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3208,6 +3228,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3405,6 +3426,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3614,6 +3636,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3831,6 +3854,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4156757</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4040,6 +4068,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4241,6 +4270,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4450,6 +4480,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4659,6 +4690,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4868,6 +4900,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5057,6 +5090,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5258,6 +5292,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5467,6 +5502,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5676,6 +5712,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5885,6 +5922,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6086,6 +6124,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6295,6 +6334,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6472,6 +6512,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6689,6 +6730,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6898,6 +6940,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7111,6 +7154,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7328,6 +7372,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7529,6 +7574,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7730,6 +7776,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7931,6 +7978,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8136,6 +8184,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8341,6 +8390,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8550,6 +8600,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8751,6 +8802,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8968,6 +9020,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9173,6 +9226,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9390,6 +9444,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9591,6 +9646,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9800,6 +9856,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10015,6 +10072,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10232,6 +10290,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10449,6 +10508,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>6829685</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10662,6 +10726,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10863,6 +10928,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11072,6 +11138,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11273,6 +11340,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11486,6 +11554,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11695,6 +11764,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11904,6 +11974,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12105,6 +12176,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12306,6 +12378,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12511,6 +12584,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12728,6 +12802,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12941,6 +13016,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13150,6 +13226,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13351,6 +13428,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13556,6 +13634,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13765,6 +13844,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13978,6 +14058,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14179,6 +14260,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14396,6 +14478,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14573,6 +14656,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14762,6 +14846,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14971,6 +15056,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15188,6 +15274,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15397,6 +15484,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15614,6 +15702,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15819,6 +15908,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16028,6 +16118,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16225,6 +16316,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16426,6 +16518,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16635,6 +16728,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16832,6 +16926,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17029,6 +17124,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17234,6 +17330,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17447,6 +17544,11 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr">
+        <is>
+          <t>2982949</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17660,6 +17762,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17861,6 +17964,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18070,6 +18174,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18287,6 +18392,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18484,6 +18590,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>3846110</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18689,6 +18800,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18902,6 +19014,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19107,6 +19220,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19193,7 +19307,7 @@
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>PROUST, Christophe/0000-0002-9097-4292; </t>
+          <t>PROUST, Christophe/0000-0002-9097-4292;</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr"/>
@@ -19316,6 +19430,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19533,6 +19648,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19750,6 +19866,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19955,6 +20072,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20164,6 +20282,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20373,6 +20492,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20590,6 +20710,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20803,6 +20924,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21004,6 +21126,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21209,6 +21332,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21414,6 +21538,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21623,6 +21748,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21840,6 +21966,11 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>6004791</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22041,6 +22172,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22250,6 +22382,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22447,6 +22580,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22664,6 +22798,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22877,6 +23012,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23078,6 +23214,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23295,6 +23432,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23512,6 +23650,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23725,6 +23864,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -23942,6 +24082,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24151,6 +24292,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24360,6 +24502,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24577,6 +24720,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24774,6 +24918,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -24975,6 +25120,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25184,6 +25330,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25393,6 +25540,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25598,6 +25746,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25807,6 +25956,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26024,6 +26174,11 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr">
+        <is>
+          <t>3864528</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26233,6 +26388,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26442,6 +26598,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26651,6 +26808,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26860,6 +27018,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27065,6 +27224,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27274,6 +27434,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27483,6 +27644,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27684,6 +27846,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -27901,6 +28064,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28078,6 +28242,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28287,6 +28452,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28492,6 +28658,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28701,6 +28868,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -28898,6 +29066,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29103,6 +29272,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29312,6 +29482,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29513,6 +29684,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29726,6 +29898,7 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -29927,6 +30100,7 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30124,6 +30298,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30329,6 +30504,7 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30526,6 +30702,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -30727,6 +30904,11 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr">
+        <is>
+          <t>4511893</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -30936,6 +31118,7 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31153,6 +31336,7 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -31366,6 +31550,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -31575,6 +31760,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -31784,6 +31970,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -31993,6 +32180,7 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -32202,6 +32390,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -32411,6 +32600,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -32612,6 +32802,7 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -32821,6 +33012,7 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -33030,6 +33222,7 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -33247,6 +33440,7 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -33448,6 +33642,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -33657,6 +33852,7 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -33858,6 +34054,7 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -34075,6 +34272,7 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -34292,6 +34490,7 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -34497,6 +34696,7 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -34702,6 +34902,7 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -34919,6 +35120,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -35136,6 +35338,7 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -35353,6 +35556,7 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -35558,6 +35762,7 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -35759,6 +35964,7 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -35960,6 +36166,7 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -36169,6 +36376,7 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -36378,6 +36586,7 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -36579,6 +36788,7 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -36788,6 +36998,7 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -36997,6 +37208,7 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -37206,6 +37418,7 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -37387,6 +37600,7 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -37600,6 +37814,7 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -37809,6 +38024,7 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -38018,6 +38234,7 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -38227,6 +38444,7 @@
         </is>
       </c>
       <c r="BQ182" t="inlineStr"/>
+      <c r="BR182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -38436,6 +38654,7 @@
         </is>
       </c>
       <c r="BQ183" t="inlineStr"/>
+      <c r="BR183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -38649,6 +38868,7 @@
         </is>
       </c>
       <c r="BQ184" t="inlineStr"/>
+      <c r="BR184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -38862,6 +39082,7 @@
         </is>
       </c>
       <c r="BQ185" t="inlineStr"/>
+      <c r="BR185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -39067,6 +39288,7 @@
         </is>
       </c>
       <c r="BQ186" t="inlineStr"/>
+      <c r="BR186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -39268,6 +39490,7 @@
         </is>
       </c>
       <c r="BQ187" t="inlineStr"/>
+      <c r="BR187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -39477,6 +39700,7 @@
         </is>
       </c>
       <c r="BQ188" t="inlineStr"/>
+      <c r="BR188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -39686,6 +39910,7 @@
         </is>
       </c>
       <c r="BQ189" t="inlineStr"/>
+      <c r="BR189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -39895,6 +40120,7 @@
         </is>
       </c>
       <c r="BQ190" t="inlineStr"/>
+      <c r="BR190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -40104,6 +40330,7 @@
         </is>
       </c>
       <c r="BQ191" t="inlineStr"/>
+      <c r="BR191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -40309,6 +40536,7 @@
         </is>
       </c>
       <c r="BQ192" t="inlineStr"/>
+      <c r="BR192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -40514,6 +40742,7 @@
         </is>
       </c>
       <c r="BQ193" t="inlineStr"/>
+      <c r="BR193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -40715,6 +40944,7 @@
         </is>
       </c>
       <c r="BQ194" t="inlineStr"/>
+      <c r="BR194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -40912,6 +41142,7 @@
         </is>
       </c>
       <c r="BQ195" t="inlineStr"/>
+      <c r="BR195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -41129,6 +41360,11 @@
         </is>
       </c>
       <c r="BQ196" t="inlineStr"/>
+      <c r="BR196" t="inlineStr">
+        <is>
+          <t>16275651</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -41338,6 +41574,7 @@
         </is>
       </c>
       <c r="BQ197" t="inlineStr"/>
+      <c r="BR197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -41539,6 +41776,7 @@
         </is>
       </c>
       <c r="BQ198" t="inlineStr"/>
+      <c r="BR198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -41740,6 +41978,7 @@
         </is>
       </c>
       <c r="BQ199" t="inlineStr"/>
+      <c r="BR199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -41941,6 +42180,7 @@
         </is>
       </c>
       <c r="BQ200" t="inlineStr"/>
+      <c r="BR200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -42150,6 +42390,7 @@
         </is>
       </c>
       <c r="BQ201" t="inlineStr"/>
+      <c r="BR201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -42359,6 +42600,7 @@
         </is>
       </c>
       <c r="BQ202" t="inlineStr"/>
+      <c r="BR202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -42568,6 +42810,11 @@
         </is>
       </c>
       <c r="BQ203" t="inlineStr"/>
+      <c r="BR203" t="inlineStr">
+        <is>
+          <t>51468257</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -42785,6 +43032,7 @@
         </is>
       </c>
       <c r="BQ204" t="inlineStr"/>
+      <c r="BR204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -42994,6 +43242,7 @@
         </is>
       </c>
       <c r="BQ205" t="inlineStr"/>
+      <c r="BR205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -43207,6 +43456,7 @@
         </is>
       </c>
       <c r="BQ206" t="inlineStr"/>
+      <c r="BR206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -43408,6 +43658,7 @@
         </is>
       </c>
       <c r="BQ207" t="inlineStr"/>
+      <c r="BR207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -43617,6 +43868,7 @@
         </is>
       </c>
       <c r="BQ208" t="inlineStr"/>
+      <c r="BR208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -43830,6 +44082,7 @@
         </is>
       </c>
       <c r="BQ209" t="inlineStr"/>
+      <c r="BR209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -44039,6 +44292,7 @@
         </is>
       </c>
       <c r="BQ210" t="inlineStr"/>
+      <c r="BR210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -44216,6 +44470,7 @@
         </is>
       </c>
       <c r="BQ211" t="inlineStr"/>
+      <c r="BR211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -44425,6 +44680,7 @@
         </is>
       </c>
       <c r="BQ212" t="inlineStr"/>
+      <c r="BR212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -44642,6 +44898,7 @@
         </is>
       </c>
       <c r="BQ213" t="inlineStr"/>
+      <c r="BR213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -44859,6 +45116,7 @@
         </is>
       </c>
       <c r="BQ214" t="inlineStr"/>
+      <c r="BR214" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
